--- a/assets/files/excel/2115.xlsx
+++ b/assets/files/excel/2115.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AA_Work\2017_ФХИ_Информатика\3_Рабочие материалы\Эксель-интерактив\Задачи в Приложение для ПК\Excel-решения_Сапунова\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AA_Work\2017_ФХИ_Информатика\3_Рабочие материалы\3-й этап\Эксель-интерактив\Excel-решения\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="2l2IgjuYt+n28+9KChpH8F9cT52gbebMrN/dhmAwkKHRRTfPrm1lMVsMJapwzYJmZzkzv7FjsbYR6ezFpVCsVQ==" workbookSaltValue="+Um5ZAKhPsDabSZ3mFIDyQ==" workbookSpinCount="100000" lockStructure="1"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Q1MDxzp/lYKyZIjHRZKAb2d0veuYs7ukyCpGkHbDbtNUskmRBWRkLOPdhIrFWfPSp4z6niwHTnirnr5dBa6EMQ==" workbookSaltValue="eVhb/QmMbzOhJUV5SY/Yag==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7470"/>
   </bookViews>
@@ -727,18 +727,6 @@
     <xf numFmtId="1" fontId="0" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -755,6 +743,18 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -910,7 +910,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1069,11 +1068,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="283307696"/>
-        <c:axId val="283308256"/>
+        <c:axId val="251064544"/>
+        <c:axId val="251065328"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="283307696"/>
+        <c:axId val="251064544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1116,7 +1115,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="283308256"/>
+        <c:crossAx val="251065328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1124,7 +1123,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="283308256"/>
+        <c:axId val="251065328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1175,7 +1174,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="283307696"/>
+        <c:crossAx val="251064544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1189,7 +1188,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1296,7 +1294,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1551,11 +1548,11 @@
             <a:effectLst/>
           </c:spPr>
         </c:hiLowLines>
-        <c:axId val="377349920"/>
-        <c:axId val="377349360"/>
+        <c:axId val="251065720"/>
+        <c:axId val="251066896"/>
       </c:stockChart>
       <c:catAx>
-        <c:axId val="377349920"/>
+        <c:axId val="251065720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1598,7 +1595,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="377349360"/>
+        <c:crossAx val="251066896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1606,7 +1603,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="377349360"/>
+        <c:axId val="251066896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="7000"/>
@@ -1672,7 +1669,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="377349920"/>
+        <c:crossAx val="251065720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1686,7 +1683,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2112,7 +2108,7 @@
   <dimension ref="A1:Q167"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19:P19"/>
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2156,60 +2152,60 @@
     </row>
     <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="61"/>
-      <c r="L4" s="61"/>
-      <c r="M4" s="61"/>
-      <c r="N4" s="62"/>
+      <c r="B4" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="69"/>
+      <c r="N4" s="70"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
     </row>
     <row r="5" spans="1:17" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="63" t="s">
+      <c r="B5" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="63"/>
-      <c r="L5" s="63"/>
-      <c r="M5" s="63"/>
-      <c r="N5" s="63"/>
-    </row>
-    <row r="6" spans="1:17" s="64" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="66" t="s">
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="71"/>
+      <c r="L5" s="71"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="71"/>
+    </row>
+    <row r="6" spans="1:17" s="60" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="65"/>
-      <c r="J6" s="68" t="s">
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="K6" s="67"/>
-      <c r="L6" s="67"/>
-      <c r="M6" s="67"/>
-      <c r="N6" s="67"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="63"/>
+      <c r="M6" s="63"/>
+      <c r="N6" s="63"/>
     </row>
     <row r="7" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
@@ -2384,10 +2380,10 @@
         <f t="shared" si="0"/>
         <v>7839</v>
       </c>
-      <c r="J12" s="70" t="s">
+      <c r="J12" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="K12" s="71"/>
+      <c r="K12" s="67"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B13" s="4">
@@ -2409,7 +2405,7 @@
         <f t="shared" si="0"/>
         <v>10150</v>
       </c>
-      <c r="J13" s="69" t="s">
+      <c r="J13" s="65" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5735,7 +5731,7 @@
   <dimension ref="A1:Q166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5780,23 +5776,28 @@
       <c r="G2" s="27"/>
       <c r="H2" s="27"/>
     </row>
-    <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K3" t="e">
+        <f>ABS('Мобильный телефон'!K8:K11)-SUM('Мобильный телефон (решение)'!K7:K10)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
     <row r="4" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="61"/>
-      <c r="L4" s="61"/>
-      <c r="M4" s="61"/>
-      <c r="N4" s="62"/>
+      <c r="B4" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="69"/>
+      <c r="N4" s="70"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
@@ -6012,15 +6013,15 @@
         <v>7839</v>
       </c>
       <c r="K11" s="46" t="str">
-        <f>IFERROR(IF(SUM('Мобильный телефон'!K8:K11)=SUM('Мобильный телефон (решение)'!K7:K10),"верно","не верно"),"не верно")</f>
+        <f>IFERROR(IF(ABS(SUM('Мобильный телефон'!K8:K11)-SUM('Мобильный телефон (решение)'!K7:K10))&lt;1,"верно","не верно"),"не верно")</f>
         <v>не верно</v>
       </c>
       <c r="L11" s="46" t="str">
-        <f>IFERROR(IF(SUM('Мобильный телефон'!L8:L11)=SUM('Мобильный телефон (решение)'!L7:L10),"верно","не верно"),"не верно")</f>
+        <f>IFERROR(IF(ABS(SUM('Мобильный телефон'!L8:L11)-SUM('Мобильный телефон (решение)'!L7:L10))&lt;1,"верно","не верно"),"не верно")</f>
         <v>не верно</v>
       </c>
       <c r="N11" s="46" t="str">
-        <f>IFERROR(IF(SUM('Мобильный телефон'!N8:N11)=SUM('Мобильный телефон (решение)'!N7:N10),"верно","не верно"),"не верно")</f>
+        <f>IFERROR(IF(ABS(SUM('Мобильный телефон'!N8:N11)-SUM('Мобильный телефон (решение)'!N7:N10))&lt;1,"верно","не верно"),"не верно")</f>
         <v>не верно</v>
       </c>
     </row>
@@ -6223,7 +6224,7 @@
         <v>9933.7555555555555</v>
       </c>
       <c r="O17" s="46" t="str">
-        <f>IFERROR(IF(SUM('Мобильный телефон'!K18:N18)=SUM('Мобильный телефон (решение)'!K17:N17),"верно","не верно"),"не верно")</f>
+        <f>IFERROR(IF(ABS(SUM('Мобильный телефон'!K18:N18)-SUM('Мобильный телефон (решение)'!K17:N17))&lt;1,"верно","не верно"),"не верно")</f>
         <v>не верно</v>
       </c>
     </row>
